--- a/StructureDefinition-mp4p-bundle.xlsx
+++ b/StructureDefinition-mp4p-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T09:40:17+00:00</t>
+    <t>2021-12-01T11:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>84</v>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>84</v>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>84</v>

--- a/StructureDefinition-mp4p-bundle.xlsx
+++ b/StructureDefinition-mp4p-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T11:34:04+00:00</t>
+    <t>2021-12-06T15:13:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-bundle.xlsx
+++ b/StructureDefinition-mp4p-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T18:19:37+00:00</t>
+    <t>2021-12-09T19:18:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-bundle.xlsx
+++ b/StructureDefinition-mp4p-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T19:18:46+00:00</t>
+    <t>2022-01-05T14:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-bundle.xlsx
+++ b/StructureDefinition-mp4p-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T14:37:11+00:00</t>
+    <t>2022-01-05T14:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-bundle.xlsx
+++ b/StructureDefinition-mp4p-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3503" uniqueCount="372">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T14:53:01+00:00</t>
+    <t>2022-05-24T10:16:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1140,8 +1140,27 @@
     <t>composition</t>
   </si>
   <si>
-    <t xml:space="preserve">Composition
+    <t xml:space="preserve">Composition {https://www.charite.de/fhir/medikationsplan/StructureDefinition/Composition}
 </t>
+  </si>
+  <si>
+    <t>A set of resources composed into a single coherent clinical statement with clinical attestation</t>
+  </si>
+  <si>
+    <t>A set of healthcare-related information that is assembled together into a single logical package that provides a single coherent statement of meaning, establishes its own context and that has clinical attestation with regard to who is making the statement. A Composition defines the structure and narrative content necessary for a document. However, a Composition alone does not constitute a document. Rather, the Composition must be the first entry in a Bundle where Bundle.type=document, and any other resources referenced from Composition must be included as subsequent entries in the Bundle (for example Patient, Practitioner, Encounter, etc.).</t>
+  </si>
+  <si>
+    <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
+    <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -9495,18 +9514,20 @@
         <v>75</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>359</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>286</v>
+        <v>360</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>75</v>
@@ -9567,22 +9588,22 @@
         <v>75</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>75</v>
+        <v>363</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>75</v>
+        <v>365</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" hidden="true">
@@ -12417,7 +12438,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12440,19 +12461,19 @@
         <v>86</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>75</v>
@@ -12501,7 +12522,7 @@
         <v>75</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-mp4p-bundle.xlsx
+++ b/StructureDefinition-mp4p-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T10:16:42+00:00</t>
+    <t>2022-09-05T15:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-bundle.xlsx
+++ b/StructureDefinition-mp4p-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3503" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3503" uniqueCount="371">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T15:28:19+00:00</t>
+    <t>2022-11-28T18:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -258,10 +258,6 @@
     <t>A container for a collection of resources.</t>
   </si>
   <si>
-    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -278,47 +274,51 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Bundle.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Bundle.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Bundle.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Bundle.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -369,10 +369,6 @@
   </si>
   <si>
     <t>Bundle.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -1500,44 +1496,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="39.0078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="168.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="42.97265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="42.9765625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="25.22265625" customWidth="true" bestFit="true"/>
   </cols>
@@ -1758,27 +1754,27 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AK2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1789,28 +1785,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1860,13 +1856,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -1892,7 +1888,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1903,25 +1899,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1972,19 +1968,19 @@
         <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -2004,7 +2000,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2015,7 +2011,7 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
@@ -2027,7 +2023,7 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>99</v>
@@ -2090,7 +2086,7 @@
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
@@ -2241,28 +2237,28 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2312,19 +2308,19 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>75</v>
@@ -2344,7 +2340,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2355,28 +2351,28 @@
         <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2426,19 +2422,19 @@
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>75</v>
@@ -2458,7 +2454,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2469,28 +2465,28 @@
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2540,19 +2536,19 @@
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>75</v>
@@ -2572,7 +2568,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2586,25 +2582,25 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2654,7 +2650,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -2666,7 +2662,7 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>75</v>
@@ -2686,7 +2682,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2706,19 +2702,19 @@
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2744,31 +2740,31 @@
         <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2780,7 +2776,7 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>75</v>
@@ -2800,7 +2796,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2820,19 +2816,19 @@
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2858,31 +2854,31 @@
         <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2894,7 +2890,7 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>75</v>
@@ -2914,7 +2910,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2925,28 +2921,28 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2996,19 +2992,19 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>75</v>
@@ -3028,7 +3024,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3039,11 +3035,11 @@
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
       </c>
@@ -3051,16 +3047,16 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3086,43 +3082,43 @@
         <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>75</v>
@@ -3142,7 +3138,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3150,31 +3146,31 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="H15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3224,19 +3220,19 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>75</v>
@@ -3245,10 +3241,10 @@
         <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>75</v>
@@ -3256,7 +3252,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3267,7 +3263,7 @@
         <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>75</v>
@@ -3279,7 +3275,7 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>99</v>
@@ -3342,7 +3338,7 @@
         <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>75</v>
@@ -3368,7 +3364,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3482,7 +3478,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3493,31 +3489,31 @@
         <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I18" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>75</v>
@@ -3542,49 +3538,49 @@
         <v>75</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="X18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="Y18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -3598,7 +3594,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3609,31 +3605,31 @@
         <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>75</v>
@@ -3658,49 +3654,49 @@
         <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE19" t="s" s="2">
+      <c r="AF19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -3714,7 +3710,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3722,34 +3718,34 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="H20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>75</v>
@@ -3762,61 +3758,61 @@
         <v>75</v>
       </c>
       <c r="S20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="T20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE20" t="s" s="2">
+      <c r="AF20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AF20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
@@ -3830,7 +3826,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3838,31 +3834,31 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="H21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3876,61 +3872,61 @@
         <v>75</v>
       </c>
       <c r="S21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="T21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>75</v>
@@ -3944,7 +3940,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3955,25 +3951,25 @@
         <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4024,25 +4020,25 @@
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AK22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>75</v>
@@ -4056,7 +4052,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4067,28 +4063,28 @@
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4138,25 +4134,25 @@
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
+      <c r="AK23" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -4170,7 +4166,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4178,31 +4174,31 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="H24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4213,70 +4209,70 @@
         <v>75</v>
       </c>
       <c r="R24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="S24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>75</v>
@@ -4284,7 +4280,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4292,31 +4288,31 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="H25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4366,19 +4362,19 @@
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>75</v>
@@ -4387,10 +4383,10 @@
         <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>75</v>
@@ -4398,7 +4394,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4418,19 +4414,19 @@
         <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4480,19 +4476,19 @@
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>75</v>
@@ -4512,7 +4508,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4532,19 +4528,19 @@
         <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4594,7 +4590,7 @@
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4606,7 +4602,7 @@
         <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>75</v>
@@ -4626,7 +4622,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4637,7 +4633,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>75</v>
@@ -4649,7 +4645,7 @@
         <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>99</v>
@@ -4712,7 +4708,7 @@
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>75</v>
@@ -4738,7 +4734,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4852,11 +4848,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4869,25 +4865,25 @@
         <v>75</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>105</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>108</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>75</v>
@@ -4936,7 +4932,7 @@
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -4954,7 +4950,7 @@
         <v>75</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
@@ -4968,7 +4964,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4976,28 +4972,28 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5048,19 +5044,19 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>75</v>
@@ -5080,7 +5076,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5088,28 +5084,28 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5160,19 +5156,19 @@
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>75</v>
@@ -5192,7 +5188,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5200,28 +5196,28 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5260,7 +5256,7 @@
         <v>75</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s" s="2">
@@ -5270,7 +5266,7 @@
         <v>111</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -5282,7 +5278,7 @@
         <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>75</v>
@@ -5302,7 +5298,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5313,7 +5309,7 @@
         <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>75</v>
@@ -5325,7 +5321,7 @@
         <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>99</v>
@@ -5388,7 +5384,7 @@
         <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>75</v>
@@ -5414,7 +5410,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5528,11 +5524,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5545,25 +5541,25 @@
         <v>75</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>105</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>108</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>75</v>
@@ -5612,7 +5608,7 @@
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -5630,7 +5626,7 @@
         <v>75</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5644,7 +5640,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5664,16 +5660,16 @@
         <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5724,7 +5720,7 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -5736,7 +5732,7 @@
         <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>75</v>
@@ -5756,7 +5752,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5767,28 +5763,28 @@
         <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5838,19 +5834,19 @@
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>75</v>
@@ -5870,7 +5866,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5881,25 +5877,25 @@
         <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J39" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5950,13 +5946,13 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>75</v>
@@ -5982,7 +5978,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5993,25 +5989,25 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6062,19 +6058,19 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>75</v>
@@ -6094,7 +6090,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6105,7 +6101,7 @@
         <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>75</v>
@@ -6117,7 +6113,7 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>99</v>
@@ -6180,7 +6176,7 @@
         <v>76</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>75</v>
@@ -6206,7 +6202,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6320,11 +6316,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6337,25 +6333,25 @@
         <v>75</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>105</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>108</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>75</v>
@@ -6404,7 +6400,7 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6422,7 +6418,7 @@
         <v>75</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -6436,7 +6432,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6447,28 +6443,28 @@
         <v>76</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6494,14 +6490,14 @@
         <v>75</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6518,19 +6514,19 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>75</v>
@@ -6550,7 +6546,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6561,28 +6557,28 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J45" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6632,19 +6628,19 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>75</v>
@@ -6664,7 +6660,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6675,25 +6671,25 @@
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6744,19 +6740,19 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>75</v>
@@ -6776,7 +6772,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6787,7 +6783,7 @@
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>75</v>
@@ -6799,7 +6795,7 @@
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>99</v>
@@ -6862,7 +6858,7 @@
         <v>76</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>75</v>
@@ -6888,7 +6884,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7002,11 +6998,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7019,25 +7015,25 @@
         <v>75</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>105</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>108</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>75</v>
@@ -7086,7 +7082,7 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7104,7 +7100,7 @@
         <v>75</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>75</v>
@@ -7118,7 +7114,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7126,28 +7122,28 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F50" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J50" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7174,14 +7170,14 @@
         <v>75</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>75</v>
       </c>
@@ -7198,19 +7194,19 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>75</v>
@@ -7230,7 +7226,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7238,31 +7234,31 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F51" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7312,19 +7308,19 @@
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>75</v>
@@ -7344,7 +7340,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7355,25 +7351,25 @@
         <v>76</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7424,19 +7420,19 @@
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>75</v>
@@ -7456,7 +7452,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7467,25 +7463,25 @@
         <v>76</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7536,19 +7532,19 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>75</v>
@@ -7568,7 +7564,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7579,25 +7575,25 @@
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7648,19 +7644,19 @@
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>75</v>
@@ -7680,7 +7676,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7691,25 +7687,25 @@
         <v>76</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7760,19 +7756,19 @@
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>75</v>
@@ -7792,7 +7788,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7803,25 +7799,25 @@
         <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7872,19 +7868,19 @@
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>75</v>
@@ -7904,7 +7900,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7915,7 +7911,7 @@
         <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>75</v>
@@ -7927,7 +7923,7 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>99</v>
@@ -7990,7 +7986,7 @@
         <v>76</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>75</v>
@@ -8016,7 +8012,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8130,11 +8126,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8147,25 +8143,25 @@
         <v>75</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>105</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>108</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>75</v>
@@ -8214,7 +8210,7 @@
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -8232,7 +8228,7 @@
         <v>75</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>75</v>
@@ -8246,7 +8242,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8254,28 +8250,28 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F60" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8326,19 +8322,19 @@
         <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>75</v>
@@ -8358,7 +8354,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8369,25 +8365,25 @@
         <v>76</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J61" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8438,19 +8434,19 @@
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>75</v>
@@ -8470,7 +8466,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8481,28 +8477,28 @@
         <v>76</v>
       </c>
       <c r="F62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J62" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8552,19 +8548,19 @@
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>75</v>
@@ -8584,7 +8580,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8595,28 +8591,28 @@
         <v>76</v>
       </c>
       <c r="F63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I63" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J63" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8666,19 +8662,19 @@
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>75</v>
@@ -8698,7 +8694,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8709,28 +8705,28 @@
         <v>76</v>
       </c>
       <c r="F64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J64" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8780,13 +8776,13 @@
         <v>75</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>75</v>
@@ -8812,38 +8808,38 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G65" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="H65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J65" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8894,7 +8890,7 @@
         <v>75</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -8906,7 +8902,7 @@
         <v>75</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>75</v>
@@ -8926,7 +8922,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8937,7 +8933,7 @@
         <v>76</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>75</v>
@@ -8949,7 +8945,7 @@
         <v>75</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>99</v>
@@ -9012,7 +9008,7 @@
         <v>76</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>75</v>
@@ -9038,7 +9034,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9152,11 +9148,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9169,25 +9165,25 @@
         <v>75</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>105</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>108</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>75</v>
@@ -9236,7 +9232,7 @@
         <v>75</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
@@ -9254,7 +9250,7 @@
         <v>75</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>75</v>
@@ -9268,7 +9264,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9288,16 +9284,16 @@
         <v>75</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9348,7 +9344,7 @@
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -9360,7 +9356,7 @@
         <v>75</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>75</v>
@@ -9380,7 +9376,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9391,28 +9387,28 @@
         <v>76</v>
       </c>
       <c r="F70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G70" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G70" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9462,19 +9458,19 @@
         <v>75</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>75</v>
@@ -9494,7 +9490,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9505,7 +9501,7 @@
         <v>76</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>75</v>
@@ -9517,16 +9513,16 @@
         <v>75</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9576,39 +9572,39 @@
         <v>75</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI71" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AJ71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AL71" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="AM71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9628,16 +9624,16 @@
         <v>75</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9688,19 +9684,19 @@
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>75</v>
@@ -9720,7 +9716,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9731,7 +9727,7 @@
         <v>76</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>75</v>
@@ -9743,7 +9739,7 @@
         <v>75</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>99</v>
@@ -9806,7 +9802,7 @@
         <v>76</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>75</v>
@@ -9832,7 +9828,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9946,11 +9942,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9963,25 +9959,25 @@
         <v>75</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>105</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>108</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>75</v>
@@ -10030,7 +10026,7 @@
         <v>75</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
@@ -10048,7 +10044,7 @@
         <v>75</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>75</v>
@@ -10062,7 +10058,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10073,28 +10069,28 @@
         <v>76</v>
       </c>
       <c r="F76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I76" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J76" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10120,14 +10116,14 @@
         <v>75</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="Y76" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="Z76" t="s" s="2">
         <v>75</v>
       </c>
@@ -10144,19 +10140,19 @@
         <v>75</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>75</v>
@@ -10176,7 +10172,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10187,28 +10183,28 @@
         <v>76</v>
       </c>
       <c r="F77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I77" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J77" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10258,19 +10254,19 @@
         <v>75</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>75</v>
@@ -10290,7 +10286,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10310,16 +10306,16 @@
         <v>75</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10370,19 +10366,19 @@
         <v>75</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>75</v>
@@ -10402,7 +10398,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10413,7 +10409,7 @@
         <v>76</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>75</v>
@@ -10425,7 +10421,7 @@
         <v>75</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>99</v>
@@ -10488,7 +10484,7 @@
         <v>76</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>75</v>
@@ -10514,7 +10510,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10628,11 +10624,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10645,25 +10641,25 @@
         <v>75</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>105</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>108</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>75</v>
@@ -10712,7 +10708,7 @@
         <v>75</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
@@ -10730,7 +10726,7 @@
         <v>75</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>75</v>
@@ -10744,7 +10740,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10752,28 +10748,28 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I82" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F82" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J82" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10800,14 +10796,14 @@
         <v>75</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="Z82" t="s" s="2">
         <v>75</v>
       </c>
@@ -10824,19 +10820,19 @@
         <v>75</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>75</v>
@@ -10856,7 +10852,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10864,31 +10860,31 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I83" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F83" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J83" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10938,19 +10934,19 @@
         <v>75</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>75</v>
@@ -10970,7 +10966,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10981,25 +10977,25 @@
         <v>76</v>
       </c>
       <c r="F84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I84" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J84" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11050,19 +11046,19 @@
         <v>75</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>75</v>
@@ -11082,7 +11078,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11093,25 +11089,25 @@
         <v>76</v>
       </c>
       <c r="F85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I85" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J85" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11162,19 +11158,19 @@
         <v>75</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>75</v>
@@ -11194,7 +11190,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11205,25 +11201,25 @@
         <v>76</v>
       </c>
       <c r="F86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I86" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J86" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11274,19 +11270,19 @@
         <v>75</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>75</v>
@@ -11306,7 +11302,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11317,25 +11313,25 @@
         <v>76</v>
       </c>
       <c r="F87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I87" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J87" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11386,19 +11382,19 @@
         <v>75</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>75</v>
@@ -11418,7 +11414,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11438,16 +11434,16 @@
         <v>75</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11498,19 +11494,19 @@
         <v>75</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>75</v>
@@ -11530,7 +11526,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11541,7 +11537,7 @@
         <v>76</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>75</v>
@@ -11553,7 +11549,7 @@
         <v>75</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>99</v>
@@ -11616,7 +11612,7 @@
         <v>76</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>75</v>
@@ -11642,7 +11638,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11756,11 +11752,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11773,25 +11769,25 @@
         <v>75</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>105</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>108</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>75</v>
@@ -11840,7 +11836,7 @@
         <v>75</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>76</v>
@@ -11858,7 +11854,7 @@
         <v>75</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>75</v>
@@ -11872,7 +11868,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11880,28 +11876,28 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I92" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F92" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J92" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11952,19 +11948,19 @@
         <v>75</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>75</v>
@@ -11984,7 +11980,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11995,25 +11991,25 @@
         <v>76</v>
       </c>
       <c r="F93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I93" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J93" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12064,19 +12060,19 @@
         <v>75</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>75</v>
@@ -12096,7 +12092,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12107,28 +12103,28 @@
         <v>76</v>
       </c>
       <c r="F94" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I94" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J94" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -12178,19 +12174,19 @@
         <v>75</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>75</v>
@@ -12210,7 +12206,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12221,28 +12217,28 @@
         <v>76</v>
       </c>
       <c r="F95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I95" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J95" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -12292,19 +12288,19 @@
         <v>75</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>75</v>
@@ -12324,7 +12320,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12335,28 +12331,28 @@
         <v>76</v>
       </c>
       <c r="F96" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I96" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J96" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -12406,13 +12402,13 @@
         <v>75</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>75</v>
@@ -12438,7 +12434,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12449,31 +12445,31 @@
         <v>76</v>
       </c>
       <c r="F97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I97" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J97" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K97" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="K97" t="s" s="2">
+      <c r="L97" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>75</v>
@@ -12522,19 +12518,19 @@
         <v>75</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-mp4p-bundle.xlsx
+++ b/StructureDefinition-mp4p-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:22:11+00:00</t>
+    <t>2022-11-28T18:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
